--- a/Elin_SukutsuArena/LangMod/JP/SourceSukutsu.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/SourceSukutsu.xlsx
@@ -363,30 +363,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="40.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="33.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="39.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="33.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="5.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Elin_SukutsuArena/LangMod/JP/SourceSukutsu.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/SourceSukutsu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -140,6 +140,42 @@
   </si>
   <si>
     <t xml:space="preserve">The entrance to the underground arena.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field_fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闘技場フィールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arena Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elin_SukutsuArena.Zone_FieldFine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chitsii_battle_field_fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪原フィールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elin_SukutsuArena.Zone_FieldSnow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chitsii_battle_field_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow</t>
   </si>
 </sst>
 </file>
@@ -355,7 +391,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -365,7 +401,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.51"/>
@@ -373,7 +409,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.95"/>
@@ -604,6 +640,64 @@
         <v>39</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Elin_SukutsuArena/LangMod/JP/SourceSukutsu.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/SourceSukutsu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">Elin_SukutsuArena.Zone_SukutsuArena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobby_Normal</t>
   </si>
   <si>
     <t xml:space="preserve">addMap,light</t>
@@ -412,7 +415,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.49"/>
@@ -624,34 +627,37 @@
       <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -660,27 +666,27 @@
         <v>100</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -689,13 +695,13 @@
         <v>100</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
